--- a/biology/Zoologie/Colibri_à_tête_noire/Colibri_à_tête_noire.xlsx
+++ b/biology/Zoologie/Colibri_à_tête_noire/Colibri_à_tête_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_noire</t>
+          <t>Colibri_à_tête_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trochilus polytmus
 Le Colibri à tête noire (Trochilus polytmus) est une espèce de colibris (famille des Trochilidae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_noire</t>
+          <t>Colibri_à_tête_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique de la Jamaïque.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_noire</t>
+          <t>Colibri_à_tête_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes mais aussi les anciennes forêts lourdement dégradées, les plantations agricoles, les jardins ruraux et les zones urbaines.
 </t>
